--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Il2rg</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.09583987567379</v>
+        <v>0.6580480000000001</v>
       </c>
       <c r="H2">
-        <v>1.09583987567379</v>
+        <v>1.974144</v>
       </c>
       <c r="I2">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="J2">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.064019697605</v>
+        <v>32.30682666666667</v>
       </c>
       <c r="N2">
-        <v>31.064019697605</v>
+        <v>96.92048</v>
       </c>
       <c r="O2">
-        <v>0.8894227494912946</v>
+        <v>0.886587237369156</v>
       </c>
       <c r="P2">
-        <v>0.8894227494912946</v>
+        <v>0.8865872373691559</v>
       </c>
       <c r="Q2">
-        <v>34.04119148335162</v>
+        <v>21.25944267434667</v>
       </c>
       <c r="R2">
-        <v>34.04119148335162</v>
+        <v>191.33498406912</v>
       </c>
       <c r="S2">
-        <v>0.3534728052377025</v>
+        <v>0.1623256686839367</v>
       </c>
       <c r="T2">
-        <v>0.3534728052377025</v>
+        <v>0.1623256686839367</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.09583987567379</v>
+        <v>0.6580480000000001</v>
       </c>
       <c r="H3">
-        <v>1.09583987567379</v>
+        <v>1.974144</v>
       </c>
       <c r="I3">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="J3">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.72590733562956</v>
+        <v>0.7369563333333332</v>
       </c>
       <c r="N3">
-        <v>0.72590733562956</v>
+        <v>2.210869</v>
       </c>
       <c r="O3">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="P3">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="Q3">
-        <v>0.7954782044269891</v>
+        <v>0.4849526412373333</v>
       </c>
       <c r="R3">
-        <v>0.7954782044269891</v>
+        <v>4.364573771136</v>
       </c>
       <c r="S3">
-        <v>0.008259990328534</v>
+        <v>0.003702837509653133</v>
       </c>
       <c r="T3">
-        <v>0.008259990328534</v>
+        <v>0.003702837509653133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.09583987567379</v>
+        <v>0.6580480000000001</v>
       </c>
       <c r="H4">
-        <v>1.09583987567379</v>
+        <v>1.974144</v>
       </c>
       <c r="I4">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="J4">
-        <v>0.3974182192212548</v>
+        <v>0.1830904640197835</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.13611878173033</v>
+        <v>3.395752</v>
       </c>
       <c r="N4">
-        <v>3.13611878173033</v>
+        <v>10.187256</v>
       </c>
       <c r="O4">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178035</v>
       </c>
       <c r="P4">
-        <v>0.0897931245450805</v>
+        <v>0.09318867543178033</v>
       </c>
       <c r="Q4">
-        <v>3.436684015869602</v>
+        <v>2.234567812096</v>
       </c>
       <c r="R4">
-        <v>3.436684015869602</v>
+        <v>20.111110308864</v>
       </c>
       <c r="S4">
-        <v>0.03568542365501823</v>
+        <v>0.01706195782619366</v>
       </c>
       <c r="T4">
-        <v>0.03568542365501823</v>
+        <v>0.01706195782619365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6615573010865</v>
+        <v>1.115367</v>
       </c>
       <c r="H5">
-        <v>1.6615573010865</v>
+        <v>3.346101</v>
       </c>
       <c r="I5">
-        <v>0.6025817807787451</v>
+        <v>0.3103315587652478</v>
       </c>
       <c r="J5">
-        <v>0.6025817807787451</v>
+        <v>0.3103315587652479</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.064019697605</v>
+        <v>32.30682666666667</v>
       </c>
       <c r="N5">
-        <v>31.064019697605</v>
+        <v>96.92048</v>
       </c>
       <c r="O5">
-        <v>0.8894227494912946</v>
+        <v>0.886587237369156</v>
       </c>
       <c r="P5">
-        <v>0.8894227494912946</v>
+        <v>0.8865872373691559</v>
       </c>
       <c r="Q5">
-        <v>51.61464872965044</v>
+        <v>36.03396833872</v>
       </c>
       <c r="R5">
-        <v>51.61464872965044</v>
+        <v>324.30571504848</v>
       </c>
       <c r="S5">
-        <v>0.5359499442535921</v>
+        <v>0.275135999354145</v>
       </c>
       <c r="T5">
-        <v>0.5359499442535921</v>
+        <v>0.275135999354145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.6615573010865</v>
+        <v>1.115367</v>
       </c>
       <c r="H6">
-        <v>1.6615573010865</v>
+        <v>3.346101</v>
       </c>
       <c r="I6">
-        <v>0.6025817807787451</v>
+        <v>0.3103315587652478</v>
       </c>
       <c r="J6">
-        <v>0.6025817807787451</v>
+        <v>0.3103315587652479</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.72590733562956</v>
+        <v>0.7369563333333332</v>
       </c>
       <c r="N6">
-        <v>0.72590733562956</v>
+        <v>2.210869</v>
       </c>
       <c r="O6">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="P6">
-        <v>0.02078412596362477</v>
+        <v>0.02022408719906369</v>
       </c>
       <c r="Q6">
-        <v>1.206136633427544</v>
+        <v>0.8219767746409998</v>
       </c>
       <c r="R6">
-        <v>1.206136633427544</v>
+        <v>7.397790971768999</v>
       </c>
       <c r="S6">
-        <v>0.01252413563509077</v>
+        <v>0.006276172505089729</v>
       </c>
       <c r="T6">
-        <v>0.01252413563509077</v>
+        <v>0.00627617250508973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.115367</v>
+      </c>
+      <c r="H7">
+        <v>3.346101</v>
+      </c>
+      <c r="I7">
+        <v>0.3103315587652478</v>
+      </c>
+      <c r="J7">
+        <v>0.3103315587652479</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.395752</v>
+      </c>
+      <c r="N7">
+        <v>10.187256</v>
+      </c>
+      <c r="O7">
+        <v>0.09318867543178035</v>
+      </c>
+      <c r="P7">
+        <v>0.09318867543178033</v>
+      </c>
+      <c r="Q7">
+        <v>3.787509720984</v>
+      </c>
+      <c r="R7">
+        <v>34.087587488856</v>
+      </c>
+      <c r="S7">
+        <v>0.02891938690601315</v>
+      </c>
+      <c r="T7">
+        <v>0.02891938690601315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.820699</v>
+      </c>
+      <c r="H8">
+        <v>5.462097</v>
+      </c>
+      <c r="I8">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="J8">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>32.30682666666667</v>
+      </c>
+      <c r="N8">
+        <v>96.92048</v>
+      </c>
+      <c r="O8">
+        <v>0.886587237369156</v>
+      </c>
+      <c r="P8">
+        <v>0.8865872373691559</v>
+      </c>
+      <c r="Q8">
+        <v>58.82100700517334</v>
+      </c>
+      <c r="R8">
+        <v>529.38906304656</v>
+      </c>
+      <c r="S8">
+        <v>0.4491255693310743</v>
+      </c>
+      <c r="T8">
+        <v>0.4491255693310743</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.6615573010865</v>
-      </c>
-      <c r="H7">
-        <v>1.6615573010865</v>
-      </c>
-      <c r="I7">
-        <v>0.6025817807787451</v>
-      </c>
-      <c r="J7">
-        <v>0.6025817807787451</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.13611878173033</v>
-      </c>
-      <c r="N7">
-        <v>3.13611878173033</v>
-      </c>
-      <c r="O7">
-        <v>0.0897931245450805</v>
-      </c>
-      <c r="P7">
-        <v>0.0897931245450805</v>
-      </c>
-      <c r="Q7">
-        <v>5.210841058858529</v>
-      </c>
-      <c r="R7">
-        <v>5.210841058858529</v>
-      </c>
-      <c r="S7">
-        <v>0.05410770089006225</v>
-      </c>
-      <c r="T7">
-        <v>0.05410770089006225</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.820699</v>
+      </c>
+      <c r="H9">
+        <v>5.462097</v>
+      </c>
+      <c r="I9">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="J9">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7369563333333332</v>
+      </c>
+      <c r="N9">
+        <v>2.210869</v>
+      </c>
+      <c r="O9">
+        <v>0.02022408719906369</v>
+      </c>
+      <c r="P9">
+        <v>0.02022408719906369</v>
+      </c>
+      <c r="Q9">
+        <v>1.341775659143666</v>
+      </c>
+      <c r="R9">
+        <v>12.075980932293</v>
+      </c>
+      <c r="S9">
+        <v>0.01024507718432082</v>
+      </c>
+      <c r="T9">
+        <v>0.01024507718432082</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.820699</v>
+      </c>
+      <c r="H10">
+        <v>5.462097</v>
+      </c>
+      <c r="I10">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="J10">
+        <v>0.5065779772149687</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.395752</v>
+      </c>
+      <c r="N10">
+        <v>10.187256</v>
+      </c>
+      <c r="O10">
+        <v>0.09318867543178035</v>
+      </c>
+      <c r="P10">
+        <v>0.09318867543178033</v>
+      </c>
+      <c r="Q10">
+        <v>6.182642270648</v>
+      </c>
+      <c r="R10">
+        <v>55.643780435832</v>
+      </c>
+      <c r="S10">
+        <v>0.04720733069957354</v>
+      </c>
+      <c r="T10">
+        <v>0.04720733069957353</v>
       </c>
     </row>
   </sheetData>
